--- a/data/trans_orig/PCS12_SP_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B7180E-2568-450C-9C39-D7E2178D5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B5D1E3-F61B-48D5-B188-4195F4CF61FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31283652-B55E-4915-8BA5-B4AF1A37A866}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0EF9847-DEAF-45B4-B472-58AB7715CDD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="719">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Cuartil 4</t>
@@ -77,28 +77,28 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>Cuartil 3</t>
@@ -107,28 +107,28 @@
     <t>42,68%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>Cuartil 2</t>
@@ -137,2107 +137,2059 @@
     <t>24,92%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>32,07%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
     <t>31,14%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
   </si>
   <si>
     <t>24,96%</t>
@@ -2655,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06B051F-6B19-4D71-A81D-50AA648D49D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8128A6-3FFA-464D-AD74-934F094BC6A4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3120,10 +3072,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3090,13 @@
         <v>149639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>175</v>
@@ -3153,13 +3105,13 @@
         <v>178086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -3168,13 +3120,13 @@
         <v>327725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3141,13 @@
         <v>98742</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>149</v>
@@ -3204,13 +3156,13 @@
         <v>151926</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -3219,13 +3171,13 @@
         <v>250668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3233,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3293,13 +3245,13 @@
         <v>258013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3308,13 +3260,13 @@
         <v>172234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -3323,13 +3275,13 @@
         <v>430246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,10 +3296,10 @@
         <v>315452</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>99</v>
@@ -3467,7 +3419,7 @@
         <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3476,13 +3428,13 @@
         <v>401357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3490,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3502,13 @@
         <v>171309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>155</v>
@@ -3565,7 +3517,7 @@
         <v>151393</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>128</v>
@@ -3670,10 +3622,10 @@
         <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>387</v>
@@ -3682,13 +3634,13 @@
         <v>396491</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3655,13 @@
         <v>117071</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -3718,13 +3670,13 @@
         <v>196436</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -3733,13 +3685,13 @@
         <v>313507</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,7 +3747,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3807,13 +3759,13 @@
         <v>239155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -3822,13 +3774,13 @@
         <v>231339</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>470</v>
@@ -3837,13 +3789,13 @@
         <v>470494</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3810,13 @@
         <v>299650</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -3873,13 +3825,13 @@
         <v>243905</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>555</v>
@@ -3888,13 +3840,13 @@
         <v>543554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,10 +3861,10 @@
         <v>259606</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>177</v>
@@ -3924,13 +3876,13 @@
         <v>292612</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>551</v>
@@ -3942,10 +3894,10 @@
         <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3912,13 @@
         <v>143811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="H27" s="7">
         <v>256</v>
@@ -4064,13 +4016,13 @@
         <v>802340</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>663</v>
@@ -4079,13 +4031,13 @@
         <v>677631</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>1431</v>
@@ -4094,13 +4046,13 @@
         <v>1479971</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4067,13 @@
         <v>1065970</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>757</v>
@@ -4130,13 +4082,13 @@
         <v>766248</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>1802</v>
@@ -4145,13 +4097,13 @@
         <v>1832218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4118,13 @@
         <v>890554</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>989</v>
@@ -4181,13 +4133,13 @@
         <v>1016248</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>1861</v>
@@ -4196,13 +4148,13 @@
         <v>1906801</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4169,13 @@
         <v>517680</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>888</v>
@@ -4232,13 +4184,13 @@
         <v>919072</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1417</v>
@@ -4247,13 +4199,13 @@
         <v>1436752</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,7 +4217,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -4309,7 +4261,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4330,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251271A9-4F8A-4226-9BFF-F9E84AF83290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78517B55-1795-4569-B2DF-112DF972027C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,7 +4299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4454,13 +4406,13 @@
         <v>30599</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4469,13 +4421,13 @@
         <v>23767</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4484,13 +4436,13 @@
         <v>54367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4457,13 @@
         <v>32740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -4520,13 +4472,13 @@
         <v>33958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -4535,13 +4487,13 @@
         <v>66697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4508,13 @@
         <v>29392</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4571,13 +4523,13 @@
         <v>13351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4586,13 +4538,13 @@
         <v>42743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4559,13 @@
         <v>23033</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -4622,13 +4574,13 @@
         <v>40829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4637,13 +4589,13 @@
         <v>63862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4663,13 @@
         <v>177121</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -4726,13 +4678,13 @@
         <v>138899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>307</v>
@@ -4741,13 +4693,13 @@
         <v>316020</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4714,13 @@
         <v>139543</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -4777,13 +4729,13 @@
         <v>128025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -4792,13 +4744,13 @@
         <v>267569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4765,13 @@
         <v>159493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -4828,13 +4780,13 @@
         <v>140920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -4843,13 +4795,13 @@
         <v>300413</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4816,13 @@
         <v>111547</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -4879,13 +4831,13 @@
         <v>177300</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>267</v>
@@ -4894,13 +4846,13 @@
         <v>288847</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4908,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4968,13 +4920,13 @@
         <v>292149</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -4983,13 +4935,13 @@
         <v>229917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>471</v>
@@ -4998,13 +4950,13 @@
         <v>522066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +4971,13 @@
         <v>271395</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H15" s="7">
         <v>211</v>
@@ -5034,13 +4986,13 @@
         <v>228466</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M15" s="7">
         <v>467</v>
@@ -5049,13 +5001,13 @@
         <v>499861</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5022,13 @@
         <v>265578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -5085,13 +5037,13 @@
         <v>267791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>489</v>
@@ -5100,13 +5052,13 @@
         <v>533369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5073,13 @@
         <v>188825</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>278</v>
@@ -5154,10 +5106,10 @@
         <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,7 +5165,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5225,13 +5177,13 @@
         <v>216341</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -5240,13 +5192,13 @@
         <v>165452</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -5255,13 +5207,13 @@
         <v>381793</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5228,13 @@
         <v>230693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -5291,13 +5243,13 @@
         <v>201653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>396</v>
@@ -5306,13 +5258,13 @@
         <v>432347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5279,13 @@
         <v>203646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H21" s="7">
         <v>184</v>
@@ -5342,13 +5294,13 @@
         <v>207484</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>365</v>
@@ -5357,13 +5309,13 @@
         <v>411130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5330,13 @@
         <v>106943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -5396,10 +5348,10 @@
         <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>278</v>
@@ -5408,13 +5360,13 @@
         <v>309528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,7 +5422,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5482,13 +5434,13 @@
         <v>262842</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -5497,13 +5449,13 @@
         <v>227401</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>354</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>478</v>
@@ -5512,13 +5464,13 @@
         <v>490244</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5485,13 @@
         <v>247510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -5548,13 +5500,13 @@
         <v>239630</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>474</v>
@@ -5563,13 +5515,13 @@
         <v>487140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5536,13 @@
         <v>255317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>364</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -5599,13 +5551,13 @@
         <v>274505</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>499</v>
@@ -5614,13 +5566,13 @@
         <v>529821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5587,13 @@
         <v>182070</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>370</v>
+        <v>128</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
       <c r="H27" s="7">
         <v>293</v>
@@ -5650,13 +5602,13 @@
         <v>310365</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M27" s="7">
         <v>462</v>
@@ -5665,13 +5617,13 @@
         <v>492435</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5691,13 @@
         <v>979053</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>378</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>742</v>
@@ -5754,13 +5706,13 @@
         <v>785436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>1665</v>
@@ -5769,13 +5721,13 @@
         <v>1764489</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5742,13 @@
         <v>921882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H30" s="7">
         <v>767</v>
@@ -5805,13 +5757,13 @@
         <v>831733</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>389</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>1651</v>
@@ -5820,13 +5772,13 @@
         <v>1753614</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5793,13 @@
         <v>913426</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="H31" s="7">
         <v>831</v>
@@ -5856,13 +5808,13 @@
         <v>904051</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M31" s="7">
         <v>1673</v>
@@ -5871,13 +5823,13 @@
         <v>1817477</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5844,13 @@
         <v>612418</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>958</v>
@@ -5907,13 +5859,13 @@
         <v>1037089</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>1518</v>
@@ -5922,13 +5874,13 @@
         <v>1649508</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>368</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +5936,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6005,7 +5957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9674348B-4AAE-4729-8375-2AD175282A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B798D9-113E-423F-8CF5-BB5256EFAC16}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6022,7 +5974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6129,13 +6081,13 @@
         <v>42483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -6144,13 +6096,13 @@
         <v>32996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>77</v>
@@ -6159,13 +6111,13 @@
         <v>75479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6132,13 @@
         <v>14848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6195,13 +6147,13 @@
         <v>15915</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6210,13 +6162,13 @@
         <v>30764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6183,13 @@
         <v>26304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6246,13 +6198,13 @@
         <v>32292</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>425</v>
+        <v>52</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -6261,13 +6213,13 @@
         <v>58596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6234,13 @@
         <v>32910</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6297,13 +6249,13 @@
         <v>32157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -6312,13 +6264,13 @@
         <v>65067</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6338,13 @@
         <v>222485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -6401,13 +6353,13 @@
         <v>166125</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>388</v>
@@ -6416,13 +6368,13 @@
         <v>388610</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6389,13 @@
         <v>100132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -6452,13 +6404,13 @@
         <v>106293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>451</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -6467,13 +6419,13 @@
         <v>206425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6440,13 @@
         <v>138899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -6503,13 +6455,13 @@
         <v>116350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>454</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -6518,13 +6470,13 @@
         <v>255249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>460</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6491,13 @@
         <v>96738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>463</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7">
         <v>159</v>
@@ -6554,13 +6506,13 @@
         <v>170711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>461</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>465</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
         <v>255</v>
@@ -6569,13 +6521,13 @@
         <v>267450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,7 +6583,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6643,13 +6595,13 @@
         <v>349130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -6658,13 +6610,13 @@
         <v>307162</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>630</v>
@@ -6673,10 +6625,10 @@
         <v>656291</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>473</v>
@@ -6697,10 +6649,10 @@
         <v>474</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H15" s="7">
         <v>218</v>
@@ -6712,10 +6664,10 @@
         <v>476</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>480</v>
@@ -6724,13 +6676,13 @@
         <v>514442</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>480</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6697,13 @@
         <v>220450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>216</v>
@@ -6760,13 +6712,13 @@
         <v>231092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>414</v>
@@ -6778,10 +6730,10 @@
         <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6748,13 @@
         <v>167511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -6811,13 +6763,13 @@
         <v>275558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
         <v>404</v>
@@ -6826,13 +6778,13 @@
         <v>443069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6840,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6900,13 +6852,13 @@
         <v>268565</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>225</v>
@@ -6915,13 +6867,13 @@
         <v>227913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>471</v>
@@ -6930,13 +6882,13 @@
         <v>496477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>501</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6903,13 @@
         <v>177394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -6966,13 +6918,13 @@
         <v>168346</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -6981,13 +6933,13 @@
         <v>345740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +6954,13 @@
         <v>202458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>511</v>
+        <v>235</v>
       </c>
       <c r="H21" s="7">
         <v>191</v>
@@ -7017,13 +6969,13 @@
         <v>206122</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>512</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -7032,13 +6984,13 @@
         <v>408580</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7005,13 @@
         <v>111135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -7068,13 +7020,13 @@
         <v>182630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -7083,13 +7035,13 @@
         <v>293765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,7 +7097,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7157,13 +7109,13 @@
         <v>333715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -7172,13 +7124,13 @@
         <v>315682</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>637</v>
@@ -7187,13 +7139,13 @@
         <v>649397</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7160,13 @@
         <v>248818</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -7223,13 +7175,13 @@
         <v>246742</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>526</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="M25" s="7">
         <v>481</v>
@@ -7238,13 +7190,13 @@
         <v>495560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7211,13 @@
         <v>196978</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>196</v>
@@ -7274,13 +7226,13 @@
         <v>215700</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="M26" s="7">
         <v>394</v>
@@ -7289,13 +7241,13 @@
         <v>412679</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>547</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7262,13 @@
         <v>158055</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="H27" s="7">
         <v>222</v>
@@ -7325,13 +7277,13 @@
         <v>265654</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>551</v>
+        <v>129</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="M27" s="7">
         <v>379</v>
@@ -7340,13 +7292,13 @@
         <v>423709</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7366,13 @@
         <v>1216377</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>1046</v>
@@ -7432,10 +7384,10 @@
         <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
         <v>2203</v>
@@ -7444,13 +7396,13 @@
         <v>2266254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7417,13 @@
         <v>826533</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>563</v>
+        <v>306</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="H30" s="7">
         <v>741</v>
@@ -7480,13 +7432,13 @@
         <v>766398</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="M30" s="7">
         <v>1520</v>
@@ -7495,13 +7447,13 @@
         <v>1592931</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7468,13 @@
         <v>785090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>558</v>
       </c>
       <c r="H31" s="7">
         <v>745</v>
@@ -7531,13 +7483,13 @@
         <v>801556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>122</v>
+        <v>559</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>572</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="M31" s="7">
         <v>1483</v>
@@ -7546,13 +7498,13 @@
         <v>1586646</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>575</v>
+        <v>366</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7519,13 @@
         <v>566350</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="H32" s="7">
         <v>806</v>
@@ -7582,13 +7534,13 @@
         <v>926711</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>390</v>
+        <v>566</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>1363</v>
@@ -7597,13 +7549,13 @@
         <v>1493061</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>581</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,7 +7611,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7680,7 +7632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE982759-DBF6-4933-8C21-042080CA3B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F30D90-C2C9-43D1-975B-A3BA60335259}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7697,7 +7649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7804,13 +7756,13 @@
         <v>26461</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -7819,13 +7771,13 @@
         <v>21855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>588</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -7834,13 +7786,13 @@
         <v>48316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>575</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7807,13 @@
         <v>16724</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -7870,13 +7822,13 @@
         <v>34143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -7885,13 +7837,13 @@
         <v>50867</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,13 +7858,13 @@
         <v>17883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -7921,13 +7873,13 @@
         <v>26919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>602</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>72</v>
@@ -7936,13 +7888,13 @@
         <v>44802</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>605</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7909,13 @@
         <v>38430</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -7972,13 +7924,13 @@
         <v>45785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -7987,13 +7939,13 @@
         <v>84215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>613</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8013,13 @@
         <v>106553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>596</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -8076,13 +8028,13 @@
         <v>112688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -8091,13 +8043,13 @@
         <v>219241</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,13 +8064,13 @@
         <v>167349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -8127,13 +8079,13 @@
         <v>159425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>625</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>588</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="M10" s="7">
         <v>410</v>
@@ -8142,13 +8094,13 @@
         <v>326774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>627</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8115,13 @@
         <v>134290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="H11" s="7">
         <v>232</v>
@@ -8178,13 +8130,13 @@
         <v>130250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>614</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
@@ -8193,13 +8145,13 @@
         <v>264540</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8166,13 @@
         <v>138528</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>637</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
         <v>363</v>
@@ -8229,13 +8181,13 @@
         <v>186260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>429</v>
+        <v>619</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="M12" s="7">
         <v>547</v>
@@ -8244,13 +8196,13 @@
         <v>324788</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>221</v>
+        <v>622</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,7 +8258,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8318,13 +8270,13 @@
         <v>280607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>625</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -8333,13 +8285,13 @@
         <v>254257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="M14" s="7">
         <v>554</v>
@@ -8348,13 +8300,13 @@
         <v>534864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,13 +8321,13 @@
         <v>334335</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>648</v>
+        <v>470</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="H15" s="7">
         <v>343</v>
@@ -8384,13 +8336,13 @@
         <v>275261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>650</v>
+        <v>206</v>
       </c>
       <c r="M15" s="7">
         <v>658</v>
@@ -8399,13 +8351,13 @@
         <v>609595</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>310</v>
+        <v>634</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>652</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8420,13 +8372,13 @@
         <v>184057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>316</v>
@@ -8435,13 +8387,13 @@
         <v>210253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -8450,13 +8402,13 @@
         <v>394310</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8423,13 @@
         <v>235370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="H17" s="7">
         <v>527</v>
@@ -8486,13 +8438,13 @@
         <v>313963</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>663</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>646</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -8501,13 +8453,13 @@
         <v>549333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>665</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8563,7 +8515,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8575,13 +8527,13 @@
         <v>194874</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -8590,13 +8542,13 @@
         <v>185046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>652</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>345</v>
@@ -8605,13 +8557,13 @@
         <v>379921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>653</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,13 +8578,13 @@
         <v>204069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>560</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -8641,13 +8593,13 @@
         <v>186789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>675</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -8656,13 +8608,13 @@
         <v>390858</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8629,13 @@
         <v>173032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>680</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>663</v>
       </c>
       <c r="H21" s="7">
         <v>290</v>
@@ -8692,13 +8644,13 @@
         <v>297430</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>264</v>
+        <v>664</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -8707,13 +8659,13 @@
         <v>470462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8680,13 @@
         <v>154354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>685</v>
+        <v>534</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>686</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -8743,13 +8695,13 @@
         <v>203235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>687</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="M22" s="7">
         <v>487</v>
@@ -8758,13 +8710,13 @@
         <v>357589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8820,7 +8772,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8832,13 +8784,13 @@
         <v>202625</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="H24" s="7">
         <v>273</v>
@@ -8847,13 +8799,13 @@
         <v>239766</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>455</v>
@@ -8862,13 +8814,13 @@
         <v>442391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8883,13 +8835,13 @@
         <v>255789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>681</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="H25" s="7">
         <v>303</v>
@@ -8898,13 +8850,13 @@
         <v>263748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>683</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>702</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>43</v>
+        <v>684</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
@@ -8913,13 +8865,13 @@
         <v>519537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>703</v>
+        <v>558</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>559</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,13 +8886,13 @@
         <v>292750</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>705</v>
+        <v>268</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>473</v>
+        <v>686</v>
       </c>
       <c r="H26" s="7">
         <v>398</v>
@@ -8949,13 +8901,13 @@
         <v>267977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>707</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -8964,13 +8916,13 @@
         <v>560728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>375</v>
+        <v>689</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>709</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +8937,13 @@
         <v>210080</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="H27" s="7">
         <v>580</v>
@@ -9000,13 +8952,13 @@
         <v>372523</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="M27" s="7">
         <v>835</v>
@@ -9015,13 +8967,13 @@
         <v>582603</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>715</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9089,13 +9041,13 @@
         <v>811121</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="H29" s="7">
         <v>982</v>
@@ -9104,13 +9056,13 @@
         <v>813612</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>718</v>
+        <v>404</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="M29" s="7">
         <v>1663</v>
@@ -9119,13 +9071,13 @@
         <v>1624733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>542</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,13 +9092,13 @@
         <v>978266</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="H30" s="7">
         <v>1167</v>
@@ -9155,13 +9107,13 @@
         <v>919365</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="M30" s="7">
         <v>2102</v>
@@ -9170,13 +9122,13 @@
         <v>1897631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>726</v>
+        <v>469</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9143,13 @@
         <v>802013</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>728</v>
+        <v>90</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="H31" s="7">
         <v>1285</v>
@@ -9206,13 +9158,13 @@
         <v>932829</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>140</v>
+        <v>709</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="M31" s="7">
         <v>2165</v>
@@ -9221,13 +9173,13 @@
         <v>1734842</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>711</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>401</v>
+        <v>712</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9194,13 @@
         <v>776762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>566</v>
+        <v>714</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>732</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>715</v>
       </c>
       <c r="H32" s="7">
         <v>1897</v>
@@ -9260,10 +9212,10 @@
         <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>559</v>
+        <v>716</v>
       </c>
       <c r="M32" s="7">
         <v>2759</v>
@@ -9272,13 +9224,13 @@
         <v>1898528</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9334,7 +9286,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PCS12_SP_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B5D1E3-F61B-48D5-B188-4195F4CF61FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0648542-20AB-4C7F-A32C-1788E3ADB023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0EF9847-DEAF-45B4-B472-58AB7715CDD2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A99C569-6863-4B4E-BC5D-6074755B2C39}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>Cuartil 3</t>
@@ -107,2095 +107,2095 @@
     <t>42,68%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>Cuartil 2</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>Cuartil 2</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8128A6-3FFA-464D-AD74-934F094BC6A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E92885-4124-45D9-AED9-5B4A464B2D47}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3018,13 +3018,13 @@
         <v>225855</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3039,13 @@
         <v>212491</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3054,13 +3054,13 @@
         <v>137512</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>350</v>
@@ -3069,13 +3069,13 @@
         <v>350003</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3090,13 @@
         <v>149639</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>175</v>
@@ -3105,13 +3105,13 @@
         <v>178086</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -3120,13 +3120,13 @@
         <v>327725</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3141,13 @@
         <v>98742</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>149</v>
@@ -3156,13 +3156,13 @@
         <v>151926</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -3171,13 +3171,13 @@
         <v>250668</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,7 +3233,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3245,13 +3245,13 @@
         <v>258013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3260,13 +3260,13 @@
         <v>172234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -3275,13 +3275,13 @@
         <v>430246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3296,13 @@
         <v>315452</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>203</v>
@@ -3311,13 +3311,13 @@
         <v>211650</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>497</v>
@@ -3326,13 +3326,13 @@
         <v>527102</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3347,13 @@
         <v>251573</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>299</v>
@@ -3362,13 +3362,13 @@
         <v>319915</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>538</v>
@@ -3377,13 +3377,13 @@
         <v>571488</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3398,13 @@
         <v>136762</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>244</v>
@@ -3413,13 +3413,13 @@
         <v>264595</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3428,13 +3428,13 @@
         <v>401357</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3502,13 +3502,13 @@
         <v>171309</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>155</v>
@@ -3517,13 +3517,13 @@
         <v>151393</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -3532,13 +3532,13 @@
         <v>322701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3553,13 @@
         <v>189140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>142</v>
@@ -3568,13 +3568,13 @@
         <v>140510</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -3583,13 +3583,13 @@
         <v>329650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3604,13 @@
         <v>200989</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>200</v>
@@ -3619,13 +3619,13 @@
         <v>195502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>387</v>
@@ -3634,13 +3634,13 @@
         <v>396491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3655,13 @@
         <v>117071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -3670,13 +3670,13 @@
         <v>196436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -3685,13 +3685,13 @@
         <v>313507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3759,13 +3759,13 @@
         <v>239155</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -3774,13 +3774,13 @@
         <v>231339</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>470</v>
@@ -3789,13 +3789,13 @@
         <v>470494</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3810,13 @@
         <v>299650</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -3825,13 +3825,13 @@
         <v>243905</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>555</v>
@@ -3840,13 +3840,13 @@
         <v>543554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3861,13 @@
         <v>259606</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>280</v>
@@ -3876,13 +3876,13 @@
         <v>292612</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>551</v>
@@ -3891,13 +3891,13 @@
         <v>552218</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3912,13 @@
         <v>143811</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H27" s="7">
         <v>256</v>
@@ -3927,13 +3927,13 @@
         <v>270757</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>415</v>
@@ -3942,13 +3942,13 @@
         <v>414568</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,7 +4016,7 @@
         <v>802340</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>191</v>
@@ -4043,7 +4043,7 @@
         <v>1431</v>
       </c>
       <c r="N29" s="7">
-        <v>1479971</v>
+        <v>1479970</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>196</v>
@@ -4052,7 +4052,7 @@
         <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4067,13 @@
         <v>1065970</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>757</v>
@@ -4082,28 +4082,28 @@
         <v>766248</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>1802</v>
       </c>
       <c r="N30" s="7">
-        <v>1832218</v>
+        <v>1832217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4118,13 @@
         <v>890554</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>989</v>
@@ -4133,13 +4133,13 @@
         <v>1016248</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>1861</v>
@@ -4148,13 +4148,13 @@
         <v>1906801</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,25 +4187,25 @@
         <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1417</v>
       </c>
       <c r="N32" s="7">
-        <v>1436752</v>
+        <v>1436751</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>3214</v>
       </c>
       <c r="D33" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -4247,7 +4247,7 @@
         <v>6511</v>
       </c>
       <c r="N33" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4282,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78517B55-1795-4569-B2DF-112DF972027C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743C03F-66FA-408D-B7B2-9627AE17AC88}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4299,7 +4299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4406,13 +4406,13 @@
         <v>30599</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4421,13 +4421,13 @@
         <v>23767</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4436,13 +4436,13 @@
         <v>54367</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4457,13 @@
         <v>32740</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -4472,13 +4472,13 @@
         <v>33958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -4487,13 +4487,13 @@
         <v>66697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4508,13 @@
         <v>29392</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4523,13 +4523,13 @@
         <v>13351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4538,13 +4538,13 @@
         <v>42743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4559,13 @@
         <v>23033</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -4574,13 +4574,13 @@
         <v>40829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4589,13 +4589,13 @@
         <v>63862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4663,13 @@
         <v>177121</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -4678,13 +4678,13 @@
         <v>138899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>307</v>
@@ -4693,13 +4693,13 @@
         <v>316020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4714,13 @@
         <v>139543</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -4729,13 +4729,13 @@
         <v>128025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>251</v>
@@ -4744,13 +4744,13 @@
         <v>267569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4765,13 @@
         <v>159493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -4780,13 +4780,13 @@
         <v>140920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -4795,13 +4795,13 @@
         <v>300413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4816,13 @@
         <v>111547</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -4831,13 +4831,13 @@
         <v>177300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>267</v>
@@ -4846,13 +4846,13 @@
         <v>288847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4908,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4920,13 +4920,13 @@
         <v>292149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -4935,13 +4935,13 @@
         <v>229917</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>471</v>
@@ -4950,13 +4950,13 @@
         <v>522066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4971,13 @@
         <v>271395</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H15" s="7">
         <v>211</v>
@@ -4986,13 +4986,13 @@
         <v>228466</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M15" s="7">
         <v>467</v>
@@ -5001,13 +5001,13 @@
         <v>499861</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5022,13 @@
         <v>265578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -5037,13 +5037,13 @@
         <v>267791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>489</v>
@@ -5052,13 +5052,13 @@
         <v>533369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5073,13 @@
         <v>188825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>278</v>
@@ -5088,13 +5088,13 @@
         <v>306010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -5103,13 +5103,13 @@
         <v>494835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5165,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5177,13 +5177,13 @@
         <v>216341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -5192,13 +5192,13 @@
         <v>165452</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -5207,13 +5207,13 @@
         <v>381793</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5228,13 @@
         <v>230693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -5243,13 +5243,13 @@
         <v>201653</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>396</v>
@@ -5258,13 +5258,13 @@
         <v>432347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5279,13 @@
         <v>203646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="H21" s="7">
         <v>184</v>
@@ -5294,13 +5294,13 @@
         <v>207484</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>365</v>
@@ -5309,13 +5309,13 @@
         <v>411130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5330,13 @@
         <v>106943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -5345,13 +5345,13 @@
         <v>202585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>339</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>278</v>
@@ -5360,13 +5360,13 @@
         <v>309528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,7 +5422,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5434,13 +5434,13 @@
         <v>262842</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -5449,13 +5449,13 @@
         <v>227401</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>478</v>
@@ -5464,13 +5464,13 @@
         <v>490244</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5485,13 @@
         <v>247510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>353</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -5500,13 +5500,13 @@
         <v>239630</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>474</v>
@@ -5515,13 +5515,13 @@
         <v>487140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5536,13 @@
         <v>255317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -5551,13 +5551,13 @@
         <v>274505</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>499</v>
@@ -5566,13 +5566,13 @@
         <v>529821</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5587,7 @@
         <v>182070</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>128</v>
+        <v>364</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>365</v>
@@ -5617,13 +5617,13 @@
         <v>492435</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>370</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5691,13 @@
         <v>979053</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>742</v>
@@ -5724,10 +5724,10 @@
         <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5742,13 @@
         <v>921882</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H30" s="7">
         <v>767</v>
@@ -5757,10 +5757,10 @@
         <v>831733</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>384</v>
@@ -5772,13 +5772,13 @@
         <v>1753614</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5793,13 @@
         <v>913426</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H31" s="7">
         <v>831</v>
@@ -5808,13 +5808,13 @@
         <v>904051</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>390</v>
+        <v>87</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M31" s="7">
         <v>1673</v>
@@ -5823,13 +5823,13 @@
         <v>1817477</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5844,13 @@
         <v>612418</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H32" s="7">
         <v>958</v>
@@ -5859,13 +5859,13 @@
         <v>1037089</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
         <v>1518</v>
@@ -5874,13 +5874,13 @@
         <v>1649508</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +5936,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +5957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B798D9-113E-423F-8CF5-BB5256EFAC16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38330ABC-9E06-4A91-9514-BC98B12D2D4D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5974,7 +5974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6081,10 +6081,10 @@
         <v>42483</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>402</v>
@@ -6114,10 +6114,10 @@
         <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6132,13 @@
         <v>14848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>410</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6189,7 +6189,7 @@
         <v>418</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>419</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6198,13 +6198,13 @@
         <v>32292</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -6213,13 +6213,13 @@
         <v>58596</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6234,13 @@
         <v>32910</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6249,13 +6249,13 @@
         <v>32157</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -6264,13 +6264,13 @@
         <v>65067</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6338,13 @@
         <v>222485</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -6353,13 +6353,13 @@
         <v>166125</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>438</v>
+        <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M9" s="7">
         <v>388</v>
@@ -6368,13 +6368,13 @@
         <v>388610</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6389,13 @@
         <v>100132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>444</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -6404,13 +6404,13 @@
         <v>106293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -6419,13 +6419,13 @@
         <v>206425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6440,13 @@
         <v>138899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -6455,13 +6455,13 @@
         <v>116350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>454</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -6470,13 +6470,13 @@
         <v>255249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6491,13 @@
         <v>96738</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
       <c r="H12" s="7">
         <v>159</v>
@@ -6506,13 +6506,13 @@
         <v>170711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="M12" s="7">
         <v>255</v>
@@ -6521,13 +6521,13 @@
         <v>267450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,7 +6583,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6595,13 +6595,13 @@
         <v>349130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -6610,13 +6610,13 @@
         <v>307162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M14" s="7">
         <v>630</v>
@@ -6625,13 +6625,13 @@
         <v>656291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6646,13 @@
         <v>285340</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>346</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H15" s="7">
         <v>218</v>
@@ -6661,13 +6661,13 @@
         <v>229102</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>477</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>480</v>
@@ -6676,13 +6676,13 @@
         <v>514442</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>326</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6697,13 @@
         <v>220450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
         <v>216</v>
@@ -6712,13 +6712,13 @@
         <v>231092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>414</v>
@@ -6727,13 +6727,13 @@
         <v>451542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6748,13 @@
         <v>167511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -6763,13 +6763,13 @@
         <v>275558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>404</v>
@@ -6778,13 +6778,13 @@
         <v>443069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6840,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6852,13 +6852,13 @@
         <v>268565</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H19" s="7">
         <v>225</v>
@@ -6867,13 +6867,13 @@
         <v>227913</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>471</v>
@@ -6882,7 +6882,7 @@
         <v>496477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>495</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>496</v>
@@ -6903,10 +6903,10 @@
         <v>177394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>43</v>
@@ -6918,13 +6918,13 @@
         <v>168346</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -6933,13 +6933,13 @@
         <v>345740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>500</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6954,13 @@
         <v>202458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
       <c r="H21" s="7">
         <v>191</v>
@@ -6969,13 +6969,13 @@
         <v>206122</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>489</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -6984,13 +6984,13 @@
         <v>408580</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7005,13 @@
         <v>111135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -7020,13 +7020,13 @@
         <v>182630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -7038,10 +7038,10 @@
         <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,7 +7097,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7109,13 +7109,13 @@
         <v>333715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -7124,13 +7124,13 @@
         <v>315682</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M24" s="7">
         <v>637</v>
@@ -7139,13 +7139,13 @@
         <v>649397</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>523</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,10 +7160,10 @@
         <v>248818</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>525</v>
@@ -7181,7 +7181,7 @@
         <v>527</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>481</v>
@@ -7190,13 +7190,13 @@
         <v>495560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7211,13 @@
         <v>196978</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>531</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>196</v>
@@ -7226,13 +7226,13 @@
         <v>215700</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M26" s="7">
         <v>394</v>
@@ -7241,13 +7241,13 @@
         <v>412679</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>535</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7262,13 @@
         <v>158055</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H27" s="7">
         <v>222</v>
@@ -7277,13 +7277,13 @@
         <v>265654</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>129</v>
+        <v>540</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M27" s="7">
         <v>379</v>
@@ -7292,13 +7292,13 @@
         <v>423709</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>541</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7366,13 @@
         <v>1216377</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>1046</v>
@@ -7381,13 +7381,13 @@
         <v>1049877</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M29" s="7">
         <v>2203</v>
@@ -7396,13 +7396,13 @@
         <v>2266254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7417,13 @@
         <v>826533</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>306</v>
+        <v>551</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H30" s="7">
         <v>741</v>
@@ -7432,10 +7432,10 @@
         <v>766398</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>552</v>
+        <v>422</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>553</v>
@@ -7447,13 +7447,13 @@
         <v>1592931</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>554</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>555</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7468,13 @@
         <v>785090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>557</v>
+        <v>413</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H31" s="7">
         <v>745</v>
@@ -7483,13 +7483,13 @@
         <v>801556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>559</v>
+        <v>280</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>555</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>560</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>1483</v>
@@ -7498,13 +7498,13 @@
         <v>1586646</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>561</v>
+        <v>121</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>366</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>562</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7519,13 @@
         <v>566350</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>564</v>
+        <v>279</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="H32" s="7">
         <v>806</v>
@@ -7534,13 +7534,13 @@
         <v>926711</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>567</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>560</v>
       </c>
       <c r="M32" s="7">
         <v>1363</v>
@@ -7549,13 +7549,13 @@
         <v>1493061</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>136</v>
+        <v>562</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,7 +7611,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7632,7 +7632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F30D90-C2C9-43D1-975B-A3BA60335259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1883652F-9C4C-42CF-96B2-087EDF6B6700}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7649,7 +7649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7756,13 +7756,13 @@
         <v>26461</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -7771,13 +7771,13 @@
         <v>21855</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -7786,13 +7786,13 @@
         <v>48316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7807,13 @@
         <v>16724</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -7822,13 +7822,13 @@
         <v>34143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>575</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -7837,13 +7837,13 @@
         <v>50867</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>582</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,13 +7858,13 @@
         <v>17883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>580</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -7873,13 +7873,13 @@
         <v>26919</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>583</v>
       </c>
       <c r="M6" s="7">
         <v>72</v>
@@ -7888,13 +7888,13 @@
         <v>44802</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,13 +7909,13 @@
         <v>38430</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -7924,13 +7924,13 @@
         <v>45785</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -7939,10 +7939,10 @@
         <v>84215</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>595</v>
@@ -8034,7 +8034,7 @@
         <v>600</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>601</v>
+        <v>366</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -8043,13 +8043,13 @@
         <v>219241</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,13 +8064,13 @@
         <v>167349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>605</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -8079,10 +8079,10 @@
         <v>159425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>606</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>607</v>
@@ -8094,13 +8094,13 @@
         <v>326774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>608</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8115,13 @@
         <v>134290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H11" s="7">
         <v>232</v>
@@ -8130,13 +8130,13 @@
         <v>130250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>614</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
@@ -8166,13 +8166,13 @@
         <v>138528</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>618</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>618</v>
+        <v>310</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>298</v>
+        <v>619</v>
       </c>
       <c r="H12" s="7">
         <v>363</v>
@@ -8181,13 +8181,13 @@
         <v>186260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>619</v>
+        <v>112</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="M12" s="7">
         <v>547</v>
@@ -8196,13 +8196,13 @@
         <v>324788</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,7 +8258,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8270,13 +8270,13 @@
         <v>280607</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -8285,13 +8285,13 @@
         <v>254257</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>628</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>629</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>554</v>
@@ -8300,13 +8300,13 @@
         <v>534864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,10 +8321,10 @@
         <v>334335</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>470</v>
+        <v>630</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>487</v>
+        <v>631</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>632</v>
@@ -8336,13 +8336,13 @@
         <v>275261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>633</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>206</v>
+        <v>634</v>
       </c>
       <c r="M15" s="7">
         <v>658</v>
@@ -8351,13 +8351,13 @@
         <v>609595</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>135</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,13 +8372,13 @@
         <v>184057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>637</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>316</v>
@@ -8387,13 +8387,13 @@
         <v>210253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>639</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>640</v>
+        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -8402,13 +8402,13 @@
         <v>394310</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8423,13 +8423,13 @@
         <v>235370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>444</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="H17" s="7">
         <v>527</v>
@@ -8438,13 +8438,13 @@
         <v>313963</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="M17" s="7">
         <v>740</v>
@@ -8453,13 +8453,13 @@
         <v>549333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>647</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>648</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8515,7 +8515,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8527,7 +8527,7 @@
         <v>194874</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>649</v>
@@ -8548,7 +8548,7 @@
         <v>652</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>345</v>
@@ -8581,10 +8581,10 @@
         <v>656</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>657</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>657</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -8596,10 +8596,10 @@
         <v>658</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>659</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -8608,7 +8608,7 @@
         <v>390858</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>660</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>661</v>
@@ -8629,13 +8629,13 @@
         <v>173032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>611</v>
+        <v>663</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H21" s="7">
         <v>290</v>
@@ -8644,13 +8644,13 @@
         <v>297430</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>360</v>
+        <v>666</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -8659,13 +8659,13 @@
         <v>470462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>491</v>
+        <v>669</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8680,13 +8680,13 @@
         <v>154354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>534</v>
+        <v>672</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>673</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -8695,13 +8695,13 @@
         <v>203235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>186</v>
+        <v>674</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>669</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>670</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>487</v>
@@ -8710,13 +8710,13 @@
         <v>357589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,7 +8772,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8784,13 +8784,13 @@
         <v>202625</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H24" s="7">
         <v>273</v>
@@ -8799,13 +8799,13 @@
         <v>239766</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="M24" s="7">
         <v>455</v>
@@ -8814,13 +8814,13 @@
         <v>442391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>679</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8835,13 +8835,13 @@
         <v>255789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>680</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H25" s="7">
         <v>303</v>
@@ -8850,13 +8850,13 @@
         <v>263748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>686</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>684</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
         <v>551</v>
@@ -8865,13 +8865,13 @@
         <v>519537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8886,13 +8886,13 @@
         <v>292750</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>664</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H26" s="7">
         <v>398</v>
@@ -8901,13 +8901,13 @@
         <v>267977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>688</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>690</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -8916,13 +8916,13 @@
         <v>560728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>208</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8937,13 +8937,13 @@
         <v>210080</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>693</v>
+        <v>611</v>
       </c>
       <c r="H27" s="7">
         <v>580</v>
@@ -8952,10 +8952,10 @@
         <v>372523</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>695</v>
+        <v>496</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>696</v>
@@ -8967,13 +8967,13 @@
         <v>582603</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>77</v>
+        <v>698</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>437</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,7 +9015,7 @@
         <v>2555</v>
       </c>
       <c r="N28" s="7">
-        <v>2105259</v>
+        <v>2105258</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -9041,13 +9041,13 @@
         <v>811121</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H29" s="7">
         <v>982</v>
@@ -9056,13 +9056,13 @@
         <v>813612</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>404</v>
+        <v>701</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>678</v>
+        <v>222</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="M29" s="7">
         <v>1663</v>
@@ -9071,13 +9071,13 @@
         <v>1624733</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>700</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9092,10 +9092,10 @@
         <v>978266</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>703</v>
+        <v>619</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>704</v>
+        <v>145</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>705</v>
@@ -9107,13 +9107,13 @@
         <v>919365</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="M30" s="7">
         <v>2102</v>
@@ -9122,10 +9122,10 @@
         <v>1897631</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>323</v>
+        <v>657</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>707</v>
@@ -9143,13 +9143,13 @@
         <v>802013</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>90</v>
+        <v>708</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>481</v>
+        <v>366</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H31" s="7">
         <v>1285</v>
@@ -9158,10 +9158,10 @@
         <v>932829</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>709</v>
+        <v>234</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>710</v>
@@ -9194,10 +9194,10 @@
         <v>776762</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>715</v>
@@ -9209,10 +9209,10 @@
         <v>1121765</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>570</v>
+        <v>407</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>716</v>
@@ -9224,7 +9224,7 @@
         <v>1898528</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>717</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
